--- a/src/test/resources/ParticipantWithSameNameAndEmail.xlsx
+++ b/src/test/resources/ParticipantWithSameNameAndEmail.xlsx
@@ -61,6 +61,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
@@ -106,6 +107,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -395,6 +397,45 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mike@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.01.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samuel@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DotNet</t>
+  </si>
+  <si>
     <t xml:space="preserve">John</t>
   </si>
   <si>
@@ -404,46 +445,7 @@
     <t xml:space="preserve">21.01.2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
-  </si>
-  <si>
     <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.01.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samuel@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DotNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mike@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pearl</t>
   </si>
   <si>
     <t xml:space="preserve">Smith</t>
@@ -825,12 +827,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -974,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1243800</xdr:colOff>
+      <xdr:colOff>1243440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1317600</xdr:rowOff>
+      <xdr:rowOff>1317240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -989,8 +991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3029040" y="47520"/>
-          <a:ext cx="2253240" cy="1270080"/>
+          <a:off x="3000600" y="47520"/>
+          <a:ext cx="2224080" cy="1269720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,12 +1015,13 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A4:S4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,15 +1206,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A4:S4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1430,29 +1434,29 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.75"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="26.8622448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="21" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -1523,10 +1527,10 @@
         <v>78</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>33</v>
@@ -1537,45 +1541,47 @@
       <c r="G2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="I2" s="31" t="n">
-        <v>1234567890</v>
+        <v>3456789012</v>
       </c>
       <c r="J2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="L2" s="32" t="n">
         <v>2015</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="28"/>
       <c r="R2" s="33"/>
       <c r="S2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>33</v>
@@ -1587,44 +1593,44 @@
         <v>37</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" s="32" t="n">
         <v>2015</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
       <c r="S3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" s="29" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>33</v>
@@ -1635,14 +1641,12 @@
       <c r="G4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>92</v>
-      </c>
+      <c r="H4" s="30"/>
       <c r="I4" s="31" t="n">
-        <v>3456789012</v>
+        <v>1234567890</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>93</v>
@@ -1651,16 +1655,16 @@
         <v>2015</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
       <c r="S4" s="28"/>
     </row>
@@ -1669,13 +1673,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>33</v>
@@ -1693,7 +1697,7 @@
         <v>5678901234</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>96</v>
@@ -1702,17 +1706,17 @@
         <v>2015</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="28"/>
-      <c r="R5" s="34"/>
+      <c r="R5" s="33"/>
       <c r="S5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1720,13 +1724,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>33</v>
@@ -1744,7 +1748,7 @@
         <v>4567890123</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>99</v>
@@ -1753,17 +1757,17 @@
         <v>2015</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="28"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1809,25 +1813,25 @@
       <c r="S8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="35"/>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35"/>
@@ -6231,11 +6235,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N8:N201" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N8 N10:N201" type="list">
       <formula1>"M,F"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O8:O201" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O8 O10:O201" type="list">
       <formula1>"15-20,20-30,30-50,&gt;50"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6249,8 +6253,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId2" display="samuel@test.com"/>
-    <hyperlink ref="H4" r:id="rId3" display="mike@test.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="mike@test.com"/>
+    <hyperlink ref="H3" r:id="rId3" display="samuel@test.com"/>
     <hyperlink ref="H5" r:id="rId4" display="smith@test.com"/>
     <hyperlink ref="H6" r:id="rId5" display="adam@test.com"/>
   </hyperlinks>
@@ -6273,14 +6277,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A4:S4 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="14.3112244897959"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="42" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
